--- a/src/Invictus.Api/FINANCEIRO ENF 01.xlsx
+++ b/src/Invictus.Api/FINANCEIRO ENF 01.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A1:N591"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
